--- a/Courant/Manuel de tests.xlsx
+++ b/Courant/Manuel de tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damien.mayor/Documents/GitHub/TPI/.Courant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Courant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70055DC5-9B6F-D348-AAF9-1123172076C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014E8A7D-9FAE-4880-96BF-693FC8509900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31180" yWindow="500" windowWidth="23340" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="120" windowWidth="22350" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stratégie de test" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>Type de test</t>
   </si>
@@ -152,13 +152,106 @@
   </si>
   <si>
     <t>Client to site: connect check ip</t>
+  </si>
+  <si>
+    <t>Table de routage Routeur</t>
+  </si>
+  <si>
+    <t>Ping server depuis poste 11</t>
+  </si>
+  <si>
+    <t>Ping server depuis succursale 2</t>
+  </si>
+  <si>
+    <t>Ping server depuis télétravailleur</t>
+  </si>
+  <si>
+    <t>Ping printer depuis succursale 2</t>
+  </si>
+  <si>
+    <t>Ping printer depuis télétravailleur</t>
+  </si>
+  <si>
+    <t>Configuration Routeur IP 0/0 &amp; 1/0</t>
+  </si>
+  <si>
+    <t>Configuration Switch IP &amp; no switchport 0/1, 0/2 &amp; 0/13</t>
+  </si>
+  <si>
+    <t>Table de routage Switch</t>
+  </si>
+  <si>
+    <t>Connexion VPN client à site depuis PC05</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Accès à l'interface Site principal depuis PC05 (adresse ip dans browser)</t>
+  </si>
+  <si>
+    <t>Connexion VPN site à site</t>
+  </si>
+  <si>
+    <t>image manquante</t>
+  </si>
+  <si>
+    <t>Show startup-config</t>
+  </si>
+  <si>
+    <t>Show starup-config</t>
+  </si>
+  <si>
+    <t>on voit que le chemin est différent</t>
+  </si>
+  <si>
+    <t>Site à site P1</t>
+  </si>
+  <si>
+    <t>Ping PC succursale 2 depuis PC siège principal</t>
+  </si>
+  <si>
+    <t>Configuration PC11</t>
+  </si>
+  <si>
+    <t>IP Config</t>
+  </si>
+  <si>
+    <t>Configuration PC12</t>
+  </si>
+  <si>
+    <t>ipconfig</t>
+  </si>
+  <si>
+    <t>Tracert gateway depuis 11</t>
+  </si>
+  <si>
+    <t>Tracert gateway depuis 12</t>
+  </si>
+  <si>
+    <t>Configuration Server</t>
+  </si>
+  <si>
+    <t>Configuration Imprimante Fixe</t>
+  </si>
+  <si>
+    <t>Connextion via clien vpn</t>
+  </si>
+  <si>
+    <t>Configuration Serveur</t>
+  </si>
+  <si>
+    <t>Configuration Imprimante</t>
+  </si>
+  <si>
+    <t>Configuration Routeur IP 0/0 &amp; 0/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +356,12 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -361,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,6 +496,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,28 +779,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -712,25 +812,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5" style="15"/>
+    <col min="7" max="7" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
@@ -759,225 +859,327 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
       <c r="E2" s="19"/>
+      <c r="F2" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="10" x14ac:dyDescent="0.15">
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
+      <c r="F3" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" ht="11" x14ac:dyDescent="0.15">
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" ht="9" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="11" x14ac:dyDescent="0.15">
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="9" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" ht="11" x14ac:dyDescent="0.15">
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" ht="9" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="11" x14ac:dyDescent="0.15">
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" ht="9" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="11" x14ac:dyDescent="0.15">
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" ht="9" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="11" x14ac:dyDescent="0.15">
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" ht="9" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="11" x14ac:dyDescent="0.15">
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" ht="9" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -987,8 +1189,9 @@
       <c r="E22" s="19"/>
       <c r="F22" s="22"/>
       <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="11" x14ac:dyDescent="0.15">
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" ht="9" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -998,8 +1201,9 @@
       <c r="E23" s="19"/>
       <c r="F23" s="21"/>
       <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" ht="11" x14ac:dyDescent="0.15">
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" ht="9" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -1009,6 +1213,206 @@
       <c r="E24" s="19"/>
       <c r="F24" s="21"/>
       <c r="G24" s="19"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B68" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1020,7 +1424,7 @@
           <x14:formula1>
             <xm:f>Paramètres!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:I1 F4:F52</xm:sqref>
+          <xm:sqref>H1:I1 F4:F54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1036,9 +1440,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1056,26 +1460,26 @@
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1"/>
-    <col min="2" max="2" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5" style="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="2:3" ht="12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1099,17 +1503,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="2:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="2:3" ht="11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -1133,7 +1537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
@@ -1141,32 +1545,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1185,13 +1589,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1202,7 +1606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
